--- a/natmiOut/OldD4/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.13983443771926</v>
+        <v>0.030331</v>
       </c>
       <c r="H2">
-        <v>1.13983443771926</v>
+        <v>0.090993</v>
       </c>
       <c r="I2">
-        <v>0.236735422740398</v>
+        <v>0.005854802217609369</v>
       </c>
       <c r="J2">
-        <v>0.236735422740398</v>
+        <v>0.006431404745936082</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N2">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O2">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P2">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q2">
-        <v>8.812025100794537</v>
+        <v>0.3240629150546667</v>
       </c>
       <c r="R2">
-        <v>8.812025100794537</v>
+        <v>2.916566235492</v>
       </c>
       <c r="S2">
-        <v>0.008514635551470515</v>
+        <v>0.0002754851879425337</v>
       </c>
       <c r="T2">
-        <v>0.008514635551470515</v>
+        <v>0.0003146717130350411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.13983443771926</v>
+        <v>0.030331</v>
       </c>
       <c r="H3">
-        <v>1.13983443771926</v>
+        <v>0.090993</v>
       </c>
       <c r="I3">
-        <v>0.236735422740398</v>
+        <v>0.005854802217609369</v>
       </c>
       <c r="J3">
-        <v>0.236735422740398</v>
+        <v>0.006431404745936082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N3">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P3">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q3">
-        <v>76.85733781285251</v>
+        <v>2.134160488401667</v>
       </c>
       <c r="R3">
-        <v>76.85733781285251</v>
+        <v>19.207444395615</v>
       </c>
       <c r="S3">
-        <v>0.07426354480920487</v>
+        <v>0.001814245246629605</v>
       </c>
       <c r="T3">
-        <v>0.07426354480920487</v>
+        <v>0.002072313447725933</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.13983443771926</v>
+        <v>0.030331</v>
       </c>
       <c r="H4">
-        <v>1.13983443771926</v>
+        <v>0.090993</v>
       </c>
       <c r="I4">
-        <v>0.236735422740398</v>
+        <v>0.005854802217609369</v>
       </c>
       <c r="J4">
-        <v>0.236735422740398</v>
+        <v>0.006431404745936082</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N4">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O4">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P4">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q4">
-        <v>62.73318633616149</v>
+        <v>1.792291385714667</v>
       </c>
       <c r="R4">
-        <v>62.73318633616149</v>
+        <v>16.130622471432</v>
       </c>
       <c r="S4">
-        <v>0.06061605732225427</v>
+        <v>0.001523623056831719</v>
       </c>
       <c r="T4">
-        <v>0.06061605732225427</v>
+        <v>0.001740351562614446</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.13983443771926</v>
+        <v>0.030331</v>
       </c>
       <c r="H5">
-        <v>1.13983443771926</v>
+        <v>0.090993</v>
       </c>
       <c r="I5">
-        <v>0.236735422740398</v>
+        <v>0.005854802217609369</v>
       </c>
       <c r="J5">
-        <v>0.236735422740398</v>
+        <v>0.006431404745936082</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N5">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O5">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P5">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q5">
-        <v>69.29031471123173</v>
+        <v>1.845105017037333</v>
       </c>
       <c r="R5">
-        <v>69.29031471123173</v>
+        <v>16.605945153336</v>
       </c>
       <c r="S5">
-        <v>0.06695189474206541</v>
+        <v>0.001568519811365937</v>
       </c>
       <c r="T5">
-        <v>0.06695189474206541</v>
+        <v>0.001791634677922784</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.13983443771926</v>
+        <v>0.030331</v>
       </c>
       <c r="H6">
-        <v>1.13983443771926</v>
+        <v>0.090993</v>
       </c>
       <c r="I6">
-        <v>0.236735422740398</v>
+        <v>0.005854802217609369</v>
       </c>
       <c r="J6">
-        <v>0.236735422740398</v>
+        <v>0.006431404745936082</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N6">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O6">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P6">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q6">
-        <v>27.3109855666487</v>
+        <v>0.7915899486145</v>
       </c>
       <c r="R6">
-        <v>27.3109855666487</v>
+        <v>4.749539691687001</v>
       </c>
       <c r="S6">
-        <v>0.02638929031540297</v>
+        <v>0.0006729289148395745</v>
       </c>
       <c r="T6">
-        <v>0.02638929031540297</v>
+        <v>0.0005124333446378776</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.13781485736523</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H7">
-        <v>1.13781485736523</v>
+        <v>3.682774</v>
       </c>
       <c r="I7">
-        <v>0.2363159704120177</v>
+        <v>0.2369623309722081</v>
       </c>
       <c r="J7">
-        <v>0.2363159704120177</v>
+        <v>0.2602992557868188</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N7">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O7">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P7">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q7">
-        <v>8.796411786979951</v>
+        <v>13.11584932827289</v>
       </c>
       <c r="R7">
-        <v>8.796411786979951</v>
+        <v>118.042643954456</v>
       </c>
       <c r="S7">
-        <v>0.00849954915812037</v>
+        <v>0.01114975533876097</v>
       </c>
       <c r="T7">
-        <v>0.00849954915812037</v>
+        <v>0.01273575773192345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.13781485736523</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H8">
-        <v>1.13781485736523</v>
+        <v>3.682774</v>
       </c>
       <c r="I8">
-        <v>0.2363159704120177</v>
+        <v>0.2369623309722081</v>
       </c>
       <c r="J8">
-        <v>0.2363159704120177</v>
+        <v>0.2602992557868188</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N8">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P8">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q8">
-        <v>76.7211605187005</v>
+        <v>86.37621309895223</v>
       </c>
       <c r="R8">
-        <v>76.7211605187005</v>
+        <v>777.38591789057</v>
       </c>
       <c r="S8">
-        <v>0.07413196324687078</v>
+        <v>0.07342823320377499</v>
       </c>
       <c r="T8">
-        <v>0.07413196324687078</v>
+        <v>0.08387306809463831</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.13781485736523</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H9">
-        <v>1.13781485736523</v>
+        <v>3.682774</v>
       </c>
       <c r="I9">
-        <v>0.2363159704120177</v>
+        <v>0.2369623309722081</v>
       </c>
       <c r="J9">
-        <v>0.2363159704120177</v>
+        <v>0.2602992557868188</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N9">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O9">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P9">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q9">
-        <v>62.62203448245569</v>
+        <v>72.53969113815289</v>
       </c>
       <c r="R9">
-        <v>62.62203448245569</v>
+        <v>652.857220243376</v>
       </c>
       <c r="S9">
-        <v>0.06050865663803584</v>
+        <v>0.06166583560823775</v>
       </c>
       <c r="T9">
-        <v>0.06050865663803584</v>
+        <v>0.07043752250893866</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.13781485736523</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H10">
-        <v>1.13781485736523</v>
+        <v>3.682774</v>
       </c>
       <c r="I10">
-        <v>0.2363159704120177</v>
+        <v>0.2369623309722081</v>
       </c>
       <c r="J10">
-        <v>0.2363159704120177</v>
+        <v>0.2602992557868188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N10">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O10">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P10">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q10">
-        <v>69.16754481265299</v>
+        <v>74.67722554498312</v>
       </c>
       <c r="R10">
-        <v>69.16754481265299</v>
+        <v>672.095029904848</v>
       </c>
       <c r="S10">
-        <v>0.06683326810050094</v>
+        <v>0.06348294901567569</v>
       </c>
       <c r="T10">
-        <v>0.06683326810050094</v>
+        <v>0.07251311210040776</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.13781485736523</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H11">
-        <v>1.13781485736523</v>
+        <v>3.682774</v>
       </c>
       <c r="I11">
-        <v>0.2363159704120177</v>
+        <v>0.2369623309722081</v>
       </c>
       <c r="J11">
-        <v>0.2363159704120177</v>
+        <v>0.2602992557868188</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N11">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O11">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P11">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q11">
-        <v>27.2625954425444</v>
+        <v>32.03814448824433</v>
       </c>
       <c r="R11">
-        <v>27.2625954425444</v>
+        <v>192.228866929466</v>
       </c>
       <c r="S11">
-        <v>0.02634253326848972</v>
+        <v>0.02723555780575868</v>
       </c>
       <c r="T11">
-        <v>0.02634253326848972</v>
+        <v>0.02073979535091067</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.15382530150294</v>
+        <v>1.334743666666667</v>
       </c>
       <c r="H12">
-        <v>1.15382530150294</v>
+        <v>4.004231</v>
       </c>
       <c r="I12">
-        <v>0.2396412246206783</v>
+        <v>0.2576459786864944</v>
       </c>
       <c r="J12">
-        <v>0.2396412246206783</v>
+        <v>0.2830199054567316</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N12">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O12">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P12">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q12">
-        <v>8.920188039870389</v>
+        <v>14.26068785964044</v>
       </c>
       <c r="R12">
-        <v>8.920188039870389</v>
+        <v>128.346190736764</v>
       </c>
       <c r="S12">
-        <v>0.008619148191399757</v>
+        <v>0.01212298011495741</v>
       </c>
       <c r="T12">
-        <v>0.008619148191399757</v>
+        <v>0.01384741934168579</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.15382530150294</v>
+        <v>1.334743666666667</v>
       </c>
       <c r="H13">
-        <v>1.15382530150294</v>
+        <v>4.004231</v>
       </c>
       <c r="I13">
-        <v>0.2396412246206783</v>
+        <v>0.2576459786864944</v>
       </c>
       <c r="J13">
-        <v>0.2396412246206783</v>
+        <v>0.2830199054567316</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N13">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P13">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q13">
-        <v>77.80072091177652</v>
+        <v>93.91570325885611</v>
       </c>
       <c r="R13">
-        <v>77.80072091177652</v>
+        <v>845.241329329705</v>
       </c>
       <c r="S13">
-        <v>0.07517509047332588</v>
+        <v>0.07983753759252811</v>
       </c>
       <c r="T13">
-        <v>0.07517509047332588</v>
+        <v>0.09119406711616342</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.15382530150294</v>
+        <v>1.334743666666667</v>
       </c>
       <c r="H14">
-        <v>1.15382530150294</v>
+        <v>4.004231</v>
       </c>
       <c r="I14">
-        <v>0.2396412246206783</v>
+        <v>0.2576459786864944</v>
       </c>
       <c r="J14">
-        <v>0.2396412246206783</v>
+        <v>0.2830199054567316</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N14">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O14">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P14">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q14">
-        <v>63.50320295936658</v>
+        <v>78.87143766786043</v>
       </c>
       <c r="R14">
-        <v>63.50320295936658</v>
+        <v>709.842939010744</v>
       </c>
       <c r="S14">
-        <v>0.06136008730857082</v>
+        <v>0.06704843973141156</v>
       </c>
       <c r="T14">
-        <v>0.06136008730857082</v>
+        <v>0.07658577778421644</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.15382530150294</v>
+        <v>1.334743666666667</v>
       </c>
       <c r="H15">
-        <v>1.15382530150294</v>
+        <v>4.004231</v>
       </c>
       <c r="I15">
-        <v>0.2396412246206783</v>
+        <v>0.2576459786864944</v>
       </c>
       <c r="J15">
-        <v>0.2396412246206783</v>
+        <v>0.2830199054567316</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N15">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O15">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P15">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q15">
-        <v>70.14081661095757</v>
+        <v>81.19555028932355</v>
       </c>
       <c r="R15">
-        <v>70.14081661095757</v>
+        <v>730.759952603912</v>
       </c>
       <c r="S15">
-        <v>0.06777369377567755</v>
+        <v>0.06902416287830533</v>
       </c>
       <c r="T15">
-        <v>0.06777369377567755</v>
+        <v>0.07884253863498761</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.15382530150294</v>
+        <v>1.334743666666667</v>
       </c>
       <c r="H16">
-        <v>1.15382530150294</v>
+        <v>4.004231</v>
       </c>
       <c r="I16">
-        <v>0.2396412246206783</v>
+        <v>0.2576459786864944</v>
       </c>
       <c r="J16">
-        <v>0.2396412246206783</v>
+        <v>0.2830199054567316</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N16">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O16">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P16">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q16">
-        <v>27.64621344380041</v>
+        <v>34.83464674788816</v>
       </c>
       <c r="R16">
-        <v>27.64621344380041</v>
+        <v>209.007880487329</v>
       </c>
       <c r="S16">
-        <v>0.02671320487170429</v>
+        <v>0.02961285836929197</v>
       </c>
       <c r="T16">
-        <v>0.02671320487170429</v>
+        <v>0.02255010257967836</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.38332846298339</v>
+        <v>1.194497666666667</v>
       </c>
       <c r="H17">
-        <v>1.38332846298339</v>
+        <v>3.583493</v>
       </c>
       <c r="I17">
-        <v>0.287307382226906</v>
+        <v>0.2305742503619801</v>
       </c>
       <c r="J17">
-        <v>0.287307382226906</v>
+        <v>0.2532820534242055</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N17">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O17">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P17">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q17">
-        <v>10.6944699467446</v>
+        <v>12.76226948949911</v>
       </c>
       <c r="R17">
-        <v>10.6944699467446</v>
+        <v>114.860425405492</v>
       </c>
       <c r="S17">
-        <v>0.01033355136544881</v>
+        <v>0.01084917787737248</v>
       </c>
       <c r="T17">
-        <v>0.01033355136544881</v>
+        <v>0.01239242448275228</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.38332846298339</v>
+        <v>1.194497666666667</v>
       </c>
       <c r="H18">
-        <v>1.38332846298339</v>
+        <v>3.583493</v>
       </c>
       <c r="I18">
-        <v>0.287307382226906</v>
+        <v>0.2305742503619801</v>
       </c>
       <c r="J18">
-        <v>0.287307382226906</v>
+        <v>0.2532820534242055</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N18">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P18">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q18">
-        <v>93.2757771368851</v>
+        <v>84.04766488701279</v>
       </c>
       <c r="R18">
-        <v>93.2757771368851</v>
+        <v>756.4289839831149</v>
       </c>
       <c r="S18">
-        <v>0.09012789217193136</v>
+        <v>0.07144873937094572</v>
       </c>
       <c r="T18">
-        <v>0.09012789217193136</v>
+        <v>0.08161200019486933</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.38332846298339</v>
+        <v>1.194497666666667</v>
       </c>
       <c r="H19">
-        <v>1.38332846298339</v>
+        <v>3.583493</v>
       </c>
       <c r="I19">
-        <v>0.287307382226906</v>
+        <v>0.2305742503619801</v>
       </c>
       <c r="J19">
-        <v>0.287307382226906</v>
+        <v>0.2532820534242055</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N19">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O19">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P19">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q19">
-        <v>76.1343922948105</v>
+        <v>70.5841508101591</v>
       </c>
       <c r="R19">
-        <v>76.1343922948105</v>
+        <v>635.257357291432</v>
       </c>
       <c r="S19">
-        <v>0.07356499736531008</v>
+        <v>0.06000343497626266</v>
       </c>
       <c r="T19">
-        <v>0.07356499736531008</v>
+        <v>0.06853865288723232</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.38332846298339</v>
+        <v>1.194497666666667</v>
       </c>
       <c r="H20">
-        <v>1.38332846298339</v>
+        <v>3.583493</v>
       </c>
       <c r="I20">
-        <v>0.287307382226906</v>
+        <v>0.2305742503619801</v>
       </c>
       <c r="J20">
-        <v>0.287307382226906</v>
+        <v>0.2532820534242055</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N20">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O20">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P20">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q20">
-        <v>84.09226934827147</v>
+        <v>72.66406111259289</v>
       </c>
       <c r="R20">
-        <v>84.09226934827147</v>
+        <v>653.9765500133359</v>
       </c>
       <c r="S20">
-        <v>0.08125431078629894</v>
+        <v>0.06177156225634012</v>
       </c>
       <c r="T20">
-        <v>0.08125431078629894</v>
+        <v>0.0705582882957321</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.194497666666667</v>
+      </c>
+      <c r="H21">
+        <v>3.583493</v>
+      </c>
+      <c r="I21">
+        <v>0.2305742503619801</v>
+      </c>
+      <c r="J21">
+        <v>0.2532820534242055</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.0983795</v>
+      </c>
+      <c r="N21">
+        <v>52.196759</v>
+      </c>
+      <c r="O21">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P21">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q21">
+        <v>31.17445341653117</v>
+      </c>
+      <c r="R21">
+        <v>187.046720499187</v>
+      </c>
+      <c r="S21">
+        <v>0.02650133588105911</v>
+      </c>
+      <c r="T21">
+        <v>0.02018068756361942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.39337</v>
+      </c>
+      <c r="H22">
+        <v>2.78674</v>
+      </c>
+      <c r="I22">
+        <v>0.268962637761708</v>
+      </c>
+      <c r="J22">
+        <v>0.1969673805863079</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10.68421466666667</v>
+      </c>
+      <c r="N22">
+        <v>32.052644</v>
+      </c>
+      <c r="O22">
+        <v>0.04705285980693976</v>
+      </c>
+      <c r="P22">
+        <v>0.04892736897547583</v>
+      </c>
+      <c r="Q22">
+        <v>14.88706419009334</v>
+      </c>
+      <c r="R22">
+        <v>89.32238514056</v>
+      </c>
+      <c r="S22">
+        <v>0.01265546128790637</v>
+      </c>
+      <c r="T22">
+        <v>0.009637095706079263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.39337</v>
+      </c>
+      <c r="H23">
+        <v>2.78674</v>
+      </c>
+      <c r="I23">
+        <v>0.268962637761708</v>
+      </c>
+      <c r="J23">
+        <v>0.1969673805863079</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>70.36235166666667</v>
+      </c>
+      <c r="N23">
+        <v>211.087055</v>
+      </c>
+      <c r="O23">
+        <v>0.3098730203341347</v>
+      </c>
+      <c r="P23">
+        <v>0.3222178559101571</v>
+      </c>
+      <c r="Q23">
+        <v>98.04078994178333</v>
+      </c>
+      <c r="R23">
+        <v>588.2447396507</v>
+      </c>
+      <c r="S23">
+        <v>0.08334426492025626</v>
+      </c>
+      <c r="T23">
+        <v>0.06346640705676003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.39337</v>
+      </c>
+      <c r="H24">
+        <v>2.78674</v>
+      </c>
+      <c r="I24">
+        <v>0.268962637761708</v>
+      </c>
+      <c r="J24">
+        <v>0.1969673805863079</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>59.09107466666666</v>
+      </c>
+      <c r="N24">
+        <v>177.273224</v>
+      </c>
+      <c r="O24">
+        <v>0.2602347611759026</v>
+      </c>
+      <c r="P24">
+        <v>0.2706020894912812</v>
+      </c>
+      <c r="Q24">
+        <v>82.33573070829333</v>
+      </c>
+      <c r="R24">
+        <v>494.01438424976</v>
+      </c>
+      <c r="S24">
+        <v>0.0699934278031589</v>
+      </c>
+      <c r="T24">
+        <v>0.05329978474827934</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.38332846298339</v>
-      </c>
-      <c r="H21">
-        <v>1.38332846298339</v>
-      </c>
-      <c r="I21">
-        <v>0.287307382226906</v>
-      </c>
-      <c r="J21">
-        <v>0.287307382226906</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>23.9604846659102</v>
-      </c>
-      <c r="N21">
-        <v>23.9604846659102</v>
-      </c>
-      <c r="O21">
-        <v>0.1114716589935138</v>
-      </c>
-      <c r="P21">
-        <v>0.1114716589935138</v>
-      </c>
-      <c r="Q21">
-        <v>33.14522042523064</v>
-      </c>
-      <c r="R21">
-        <v>33.14522042523064</v>
-      </c>
-      <c r="S21">
-        <v>0.03202663053791678</v>
-      </c>
-      <c r="T21">
-        <v>0.03202663053791678</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.39337</v>
+      </c>
+      <c r="H25">
+        <v>2.78674</v>
+      </c>
+      <c r="I25">
+        <v>0.268962637761708</v>
+      </c>
+      <c r="J25">
+        <v>0.1969673805863079</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>60.83231733333333</v>
+      </c>
+      <c r="N25">
+        <v>182.496952</v>
+      </c>
+      <c r="O25">
+        <v>0.2679031251727568</v>
+      </c>
+      <c r="P25">
+        <v>0.2785759485989269</v>
+      </c>
+      <c r="Q25">
+        <v>84.76192600274666</v>
+      </c>
+      <c r="R25">
+        <v>508.57155601648</v>
+      </c>
+      <c r="S25">
+        <v>0.07205593121106972</v>
+      </c>
+      <c r="T25">
+        <v>0.05487037488987658</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.39337</v>
+      </c>
+      <c r="H26">
+        <v>2.78674</v>
+      </c>
+      <c r="I26">
+        <v>0.268962637761708</v>
+      </c>
+      <c r="J26">
+        <v>0.1969673805863079</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>26.0983795</v>
+      </c>
+      <c r="N26">
+        <v>52.196759</v>
+      </c>
+      <c r="O26">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P26">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q26">
+        <v>36.364699043915</v>
+      </c>
+      <c r="R26">
+        <v>145.45879617566</v>
+      </c>
+      <c r="S26">
+        <v>0.0309135525393168</v>
+      </c>
+      <c r="T26">
+        <v>0.0156937181853127</v>
       </c>
     </row>
   </sheetData>
